--- a/horarios_optimizados-881-push_gap_0.80.xlsx
+++ b/horarios_optimizados-881-push_gap_0.80.xlsx
@@ -604,36 +604,12 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
       <c r="H5" s="4" t="inlineStr"/>
       <c r="I5" s="4" t="inlineStr"/>
       <c r="J5" s="4" t="inlineStr"/>
@@ -688,8 +664,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -704,20 +688,72 @@
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr"/>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
@@ -736,66 +772,18 @@
       <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
+      <c r="W7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -803,30 +791,30 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -867,11 +855,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R8" s="4" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -887,8 +871,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -900,11 +892,7 @@
       <c r="C9" s="4" t="inlineStr"/>
       <c r="D9" s="4" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -935,12 +923,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N9" s="4" t="inlineStr"/>
       <c r="O9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -994,21 +982,29 @@
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G10" s="4" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H10" s="4" t="inlineStr"/>
+      <c r="I10" s="4" t="inlineStr"/>
       <c r="J10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1034,7 +1030,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1082,13 +1082,37 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
-      <c r="H11" s="4" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1109,47 +1133,23 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O11" s="4" t="inlineStr"/>
+      <c r="P11" s="4" t="inlineStr"/>
+      <c r="Q11" s="4" t="inlineStr"/>
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr"/>
+      <c r="T11" s="4" t="inlineStr"/>
+      <c r="U11" s="4" t="inlineStr"/>
       <c r="V11" s="4" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr"/>
     </row>
@@ -1246,19 +1246,67 @@
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="inlineStr"/>
       <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O15" s="4" t="inlineStr"/>
-      <c r="P15" s="4" t="inlineStr"/>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V15" s="4" t="inlineStr"/>
       <c r="W15" s="4" t="inlineStr"/>
     </row>
@@ -1268,10 +1316,26 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1287,26 +1351,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
       <c r="M16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1317,7 +1365,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1353,7 +1405,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr"/>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1386,19 +1442,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr"/>
       <c r="I17" s="4" t="inlineStr"/>
       <c r="J17" s="4" t="inlineStr"/>
-      <c r="K17" s="4" t="inlineStr"/>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1429,12 +1481,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
-      <c r="V17" s="4" t="inlineStr"/>
-      <c r="W17" s="4" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1446,92 +1522,24 @@
       <c r="C18" s="4" t="inlineStr"/>
       <c r="D18" s="4" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
       <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1600,7 +1608,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P19" s="4" t="inlineStr"/>
       <c r="Q19" s="4" t="inlineStr"/>
       <c r="R19" s="4" t="inlineStr"/>
@@ -1652,21 +1664,9 @@
         </is>
       </c>
       <c r="I20" s="4" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
       <c r="M20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1874,38 +1874,50 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1926,36 +1938,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1963,100 +1951,28 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr"/>
       <c r="I26" s="4" t="inlineStr"/>
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2069,7 +1985,11 @@
       <c r="D27" s="4" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr"/>
       <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2090,7 +2010,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L27" s="4" t="inlineStr"/>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2153,26 +2077,94 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="4" t="inlineStr"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V28" s="4" t="inlineStr"/>
       <c r="W28" s="4" t="inlineStr"/>
     </row>
@@ -2216,7 +2208,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P29" s="4" t="inlineStr"/>
+      <c r="P29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2260,21 +2256,9 @@
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
       <c r="F30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2290,10 +2274,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
-      <c r="L30" s="4" t="inlineStr"/>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2352,37 +2352,13 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B31" s="4" t="inlineStr"/>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
       <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
       <c r="I31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2403,23 +2379,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M31" s="4" t="inlineStr"/>
       <c r="N31" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O31" s="4" t="inlineStr"/>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr"/>
-      <c r="R31" s="4" t="inlineStr"/>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V31" s="4" t="inlineStr"/>
       <c r="W31" s="4" t="inlineStr"/>
     </row>
@@ -2808,30 +2808,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>15:00</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2851,17 +2841,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -2882,20 +2884,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>Descanso</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2915,29 +2915,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -2958,17 +2958,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
         <v>0.5</v>
@@ -3001,17 +3001,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -3044,22 +3044,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3087,17 +3087,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3118,29 +3130,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -3166,24 +3178,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3204,29 +3216,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3262,11 +3262,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I13" t="n">
         <v>0.5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3376,29 +3376,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3419,29 +3419,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3462,30 +3450,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.5</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3505,17 +3483,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -3539,27 +3529,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3579,30 +3559,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
+        <v>8.5</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3622,22 +3592,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H22" t="n">
